--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fbln1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fbln1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.08550066666666667</v>
+        <v>72.45391466666668</v>
       </c>
       <c r="H2">
-        <v>0.256502</v>
+        <v>217.361744</v>
       </c>
       <c r="I2">
-        <v>0.001136245970483483</v>
+        <v>0.9542169410525404</v>
       </c>
       <c r="J2">
-        <v>0.001136245970483483</v>
+        <v>0.9542169410525405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>9.619970024928</v>
+        <v>4422.703336391594</v>
       </c>
       <c r="R2">
-        <v>86.57973022435199</v>
+        <v>39804.33002752435</v>
       </c>
       <c r="S2">
-        <v>0.0003721561172607291</v>
+        <v>0.1950050585043228</v>
       </c>
       <c r="T2">
-        <v>0.0003721561172607291</v>
+        <v>0.1950050585043229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.08550066666666667</v>
+        <v>72.45391466666668</v>
       </c>
       <c r="H3">
-        <v>0.256502</v>
+        <v>217.361744</v>
       </c>
       <c r="I3">
-        <v>0.001136245970483483</v>
+        <v>0.9542169410525404</v>
       </c>
       <c r="J3">
-        <v>0.001136245970483483</v>
+        <v>0.9542169410525405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>9.089957719310666</v>
+        <v>7702.899247396235</v>
       </c>
       <c r="R3">
-        <v>81.809619473796</v>
+        <v>69326.09322656611</v>
       </c>
       <c r="S3">
-        <v>0.0003516521737715257</v>
+        <v>0.3396348803302162</v>
       </c>
       <c r="T3">
-        <v>0.0003516521737715258</v>
+        <v>0.3396348803302163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.08550066666666667</v>
+        <v>72.45391466666668</v>
       </c>
       <c r="H4">
-        <v>0.256502</v>
+        <v>217.361744</v>
       </c>
       <c r="I4">
-        <v>0.001136245970483483</v>
+        <v>0.9542169410525404</v>
       </c>
       <c r="J4">
-        <v>0.001136245970483483</v>
+        <v>0.9542169410525405</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>10.66121965877022</v>
+        <v>9515.98190229307</v>
       </c>
       <c r="R4">
-        <v>95.95097692893201</v>
+        <v>85643.83712063763</v>
       </c>
       <c r="S4">
-        <v>0.0004124376794512285</v>
+        <v>0.4195770022180013</v>
       </c>
       <c r="T4">
-        <v>0.0004124376794512286</v>
+        <v>0.4195770022180014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.45391466666668</v>
+        <v>3.476318333333333</v>
       </c>
       <c r="H5">
-        <v>217.361744</v>
+        <v>10.428955</v>
       </c>
       <c r="I5">
-        <v>0.9628634699037922</v>
+        <v>0.04578305894745947</v>
       </c>
       <c r="J5">
-        <v>0.9628634699037921</v>
+        <v>0.04578305894745948</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>8152.035702825217</v>
+        <v>212.2000551926828</v>
       </c>
       <c r="R5">
-        <v>73368.32132542695</v>
+        <v>1909.800496734145</v>
       </c>
       <c r="S5">
-        <v>0.3153679218410016</v>
+        <v>0.009356287553130555</v>
       </c>
       <c r="T5">
-        <v>0.3153679218410015</v>
+        <v>0.009356287553130557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.45391466666668</v>
+        <v>3.476318333333333</v>
       </c>
       <c r="H6">
-        <v>217.361744</v>
+        <v>10.428955</v>
       </c>
       <c r="I6">
-        <v>0.9628634699037922</v>
+        <v>0.04578305894745947</v>
       </c>
       <c r="J6">
-        <v>0.9628634699037921</v>
+        <v>0.04578305894745948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>7702.899247396235</v>
+        <v>369.5829272543433</v>
       </c>
       <c r="R6">
-        <v>69326.09322656611</v>
+        <v>3326.24634528909</v>
       </c>
       <c r="S6">
-        <v>0.2979927243154826</v>
+        <v>0.01629558549822001</v>
       </c>
       <c r="T6">
-        <v>0.2979927243154826</v>
+        <v>0.01629558549822002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.45391466666668</v>
+        <v>3.476318333333333</v>
       </c>
       <c r="H7">
-        <v>217.361744</v>
+        <v>10.428955</v>
       </c>
       <c r="I7">
-        <v>0.9628634699037922</v>
+        <v>0.04578305894745947</v>
       </c>
       <c r="J7">
-        <v>0.9628634699037921</v>
+        <v>0.04578305894745948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>9034.398555166747</v>
+        <v>456.5741202363044</v>
       </c>
       <c r="R7">
-        <v>81309.58699650072</v>
+        <v>4109.16708212674</v>
       </c>
       <c r="S7">
-        <v>0.349502823747308</v>
+        <v>0.02013118589610891</v>
       </c>
       <c r="T7">
-        <v>0.3495028237473081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.708963</v>
-      </c>
-      <c r="H8">
-        <v>8.126889</v>
-      </c>
-      <c r="I8">
-        <v>0.03600028412572435</v>
-      </c>
-      <c r="J8">
-        <v>0.03600028412572434</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>112.513392</v>
-      </c>
-      <c r="N8">
-        <v>337.540176</v>
-      </c>
-      <c r="O8">
-        <v>0.3275312977368564</v>
-      </c>
-      <c r="P8">
-        <v>0.3275312977368564</v>
-      </c>
-      <c r="Q8">
-        <v>304.794615932496</v>
-      </c>
-      <c r="R8">
-        <v>2743.151543392464</v>
-      </c>
-      <c r="S8">
-        <v>0.01179121977859405</v>
-      </c>
-      <c r="T8">
-        <v>0.01179121977859404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.708963</v>
-      </c>
-      <c r="H9">
-        <v>8.126889</v>
-      </c>
-      <c r="I9">
-        <v>0.03600028412572435</v>
-      </c>
-      <c r="J9">
-        <v>0.03600028412572434</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>106.314466</v>
-      </c>
-      <c r="N9">
-        <v>318.943398</v>
-      </c>
-      <c r="O9">
-        <v>0.3094859589441663</v>
-      </c>
-      <c r="P9">
-        <v>0.3094859589441664</v>
-      </c>
-      <c r="Q9">
-        <v>288.001954758758</v>
-      </c>
-      <c r="R9">
-        <v>2592.017592828822</v>
-      </c>
-      <c r="S9">
-        <v>0.01114158245491225</v>
-      </c>
-      <c r="T9">
-        <v>0.01114158245491225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.708963</v>
-      </c>
-      <c r="H10">
-        <v>8.126889</v>
-      </c>
-      <c r="I10">
-        <v>0.03600028412572435</v>
-      </c>
-      <c r="J10">
-        <v>0.03600028412572434</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>124.6916553333333</v>
-      </c>
-      <c r="N10">
-        <v>374.074966</v>
-      </c>
-      <c r="O10">
-        <v>0.3629827433189773</v>
-      </c>
-      <c r="P10">
-        <v>0.3629827433189773</v>
-      </c>
-      <c r="Q10">
-        <v>337.7850807067528</v>
-      </c>
-      <c r="R10">
-        <v>3040.065726360774</v>
-      </c>
-      <c r="S10">
-        <v>0.01306748189221805</v>
-      </c>
-      <c r="T10">
-        <v>0.01306748189221805</v>
+        <v>0.02013118589610891</v>
       </c>
     </row>
   </sheetData>
